--- a/vocexcel/blank.xlsx
+++ b/vocexcel/blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/surround/VocExcel/vocexcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jamie\surround\VocExcel\vocexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D96CC4-2692-C34B-BD43-D4801BB0BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32191CD0-3977-4FF1-A454-AA0289536587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="36180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22845" yWindow="0" windowWidth="22740" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
   <si>
     <t>When was this vocabulary first created?</t>
   </si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>http://resource.geosciml.org/classifier/cgi/particletype/miarolitic_cavity</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>https://linked.data.gov.au/org/des</t>
+  </si>
+  <si>
+    <t>Department of Environment and Science, Queensland Government</t>
   </si>
   <si>
     <t>0.2.1</t>
@@ -1048,23 +1057,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="78.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>41</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1163,10 +1172,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
@@ -1188,18 +1197,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1225,60 +1234,67 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="27" spans="2:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1287,33 +1303,33 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -1335,7 +1351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>132</v>
       </c>
@@ -1434,14 +1450,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
@@ -1463,7 +1479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +1523,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>92</v>
       </c>
@@ -1518,7 +1534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>25</v>
       </c>
@@ -1529,14 +1545,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>32</v>
       </c>
@@ -1544,7 +1560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
@@ -1555,7 +1571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
@@ -1566,7 +1582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>25</v>
       </c>
@@ -1597,23 +1613,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="15" customWidth="1"/>
     <col min="3" max="3" width="47" style="15" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="15"/>
+    <col min="4" max="4" width="62.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -1669,7 +1685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -1683,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +1713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -1722,7 +1738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
@@ -1733,10 +1749,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -1750,7 +1766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
@@ -1764,18 +1780,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>82</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>83</v>
       </c>
@@ -1823,7 +1839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>84</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>86</v>
       </c>
@@ -1856,7 +1872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>32</v>
       </c>
@@ -1874,11 +1890,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -1889,6 +1900,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1896,24 +1919,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
     <col min="4" max="4" width="74" style="4" customWidth="1"/>
-    <col min="5" max="5" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -1927,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -1969,7 +1992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>41</v>
       </c>
@@ -1983,7 +2006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +2020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -2011,7 +2034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -2025,7 +2048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
@@ -2036,10 +2059,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -2053,7 +2076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
@@ -2064,18 +2087,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -2121,7 +2144,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -2136,7 +2159,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -2153,7 +2176,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -2167,7 +2190,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -2181,7 +2204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -2198,7 +2221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -2216,11 +2239,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -2228,30 +2246,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +2292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2295,7 +2325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2304,6 +2334,17 @@
       </c>
       <c r="C6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2313,6 +2354,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{1D815474-F563-4525-94DA-5A1FC4F5F13F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2323,17 +2365,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2341,15 +2383,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
